--- a/Tables/BETADISPERSION_PCO_den_fishing.xlsx
+++ b/Tables/BETADISPERSION_PCO_den_fishing.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0169410063988231</v>
+        <v>0.0334433051472082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0169410063988231</v>
+        <v>0.0334433051472082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.763224667954721</v>
+        <v>2.0903769276243</v>
       </c>
       <c r="E2" t="n">
         <v>9999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3818</v>
+        <v>0.1472</v>
       </c>
     </row>
     <row r="3">
@@ -406,10 +406,10 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2407062272454</v>
+        <v>2.33580962694684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0221966179948315</v>
+        <v>0.0159986960749783</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
